--- a/datos_extraidos.xlsx
+++ b/datos_extraidos.xlsx
@@ -468,7 +468,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>19-SEP-24</t>
+          <t>20-SEP-24</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -478,22 +478,22 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 1 095,57</t>
+          <t xml:space="preserve">  991,58</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1 692,56</t>
+          <t>1 656,8</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t xml:space="preserve">  305,91</t>
+          <t xml:space="preserve">  284,96</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>6 944,20</t>
+          <t>7 053,90</t>
         </is>
       </c>
     </row>
